--- a/medicine/Sexualité et sexologie/Chasseur_de_vierges/Chasseur_de_vierges.xlsx
+++ b/medicine/Sexualité et sexologie/Chasseur_de_vierges/Chasseur_de_vierges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasseur de vierges (エロス学園 感度ばつぐん, Erosu gakuen: Kando batsugun?) est une comédie érotique japonaise réalisée par Koretsugu Kurahara, sortie en 1977.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un lycée, tous les jeunes puceaux rêvent de coucher avec la superbe Misa. Cette lycéenne, toujours pucelle, est toujours entourée de ses deux amies, la judokate Yoshie Tashiro et Akemi, la reporter du journal de l'établissement. Un jour, un nouvel élève, Ryu dit "le dragon", débarque. Bellâtre et sexy, amateur de vierges, il jette son dévolu sur toutes les filles au grand détriment des autres garçons beaucoup moins attirants que lui. Trop timides, ils jalousent son audace et sa virilité. Mais une jeune fille résiste à son charme : Misa. Violeur récidiviste tout juste sorti de prison, Ryu est prêt à tout pour la posséder et la déniaiser. Ryu compte donc continuer de faire honneur à son ego et passera à ce propos un avertissement dans le journal. Pour les filles, c'est une déclaration de guerre. Alors qu'il prépare l'assaut final pour déflorer et violer Misa, sa bande riposte en sollicitant l'aide de deux lycéens puceaux pour tuer Ryu. Une guerre des sexes commence.
 </t>
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : エロス学園 感度ばつぐん (Erosu gakuen: Kando batsugun?)
-Titre français : Chasseur de vierges[1]
+Titre français : Chasseur de vierges
 Réalisation : Koretsugu Kurahara
 Scénario : Akira Momoi (ja)
 Montage : Akira Suzuki
@@ -559,7 +575,7 @@
 Genre : comédie érotique, roman porno
 Durée : 71 minutes
 Date de sortie :
-Japon : 1er octobre 1977[2]</t>
+Japon : 1er octobre 1977</t>
         </is>
       </c>
     </row>
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Asami Ogawa : Misa
 Asami Morikawa : Akemi
